--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/12_Balıkesir_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/12_Balıkesir_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DB0FC3-8118-4753-9D2E-5B7DDDFAB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED23436-4BF3-44C9-A43F-CDB7F15ABFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{26DA77D0-F463-484A-9FD0-CDA4AA4CC9B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{0BCE87AD-F79B-424E-8760-83ACCAB9E2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="126" r:id="rId1"/>
@@ -959,13 +959,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C5CF711E-4F9C-491D-8F5D-70C3B52F99E0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{57E33854-292B-4D73-AB99-345ABE540152}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D429231E-841B-425A-884A-7B636FD9261B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D845A724-677E-4726-B977-D8FFBEFC1476}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A00FAFBE-FDC5-4175-B1AD-92AAE61DDFC0}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{917097B1-AEB9-4915-9E97-0A3531097ED8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0AFD7973-3B32-4DD8-AA0E-6163EBB1C5F4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{811579C3-6F82-4C3B-8E9A-B4339B2F0528}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{70E880BF-B110-4E26-A078-82D3C3F0C0BC}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{4D85C741-6E05-46B7-B260-22057E617B66}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{DF310452-980B-4180-ACE4-D86EDF54C122}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{F941A8A0-8942-42A2-9B1E-FA8AB67F1404}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{2B667350-2EFB-475E-A235-DA33B96C42C1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5A9127D2-7A80-4805-B32C-7CDD3949E43B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF9462-238E-4ECF-9AF7-98726AA85746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6A64A4-012F-4705-9E39-55FB199D80EB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5CA9E4-311F-42B9-8F97-536CB9894245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6367BA-64BB-44AE-B92E-49C639A68FB2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3893,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3C654C-BD54-403D-A736-F3DAE9F16C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616D0497-7856-4AC2-AC8A-AF84C7B78EE0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5155,7 +5155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F09939-047D-42DC-A589-A95F42F0827B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7201C20B-F7AD-41DB-A572-12DA4A885702}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6413,7 +6413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D20EF80-B2FE-4C2E-858F-2DFAF1E644FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE25802E-EA09-49E1-AF21-71C662391C0F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7708,7 +7708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB33FD1-CA43-495E-8302-957F44730646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82850CC-8CF4-4708-B613-535367775A89}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9003,7 +9003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9CF3B2-6C34-4EC9-A7E3-A66FF6D9918F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F392136-F495-4EF6-8CBF-B61FAB1F7F78}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10298,7 +10298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46979F0E-EDFC-4AD4-A34C-EFE74D673B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6D2D1D-AA65-4334-8CB9-5C298FBE221F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11593,7 +11593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75886CF-C449-410F-A5A6-7AFA230F242D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0DBFCC-B717-495F-84F7-FC47A125E23B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12888,7 +12888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8758320-6856-4881-9474-DC2C32856290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BCAC7F-4C3E-41D0-A516-DC68F5658B24}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14169,7 +14169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AB9A9-1DFD-4226-B1D6-F22DB8104F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA5F49-550A-437F-800D-DBF198504ED8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15450,7 +15450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C231D6-43BA-4953-BF27-CD9D0FC8FBB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEEEB90-A306-43F7-9DD5-DD76F5470204}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
